--- a/doc/standards.xlsx
+++ b/doc/standards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Standard\Europe\Travaux en cours\2021 eIDAS 2\9-Projets Européens\LSP\#4 APTITUDE\WP2\T.2.1.4\Identification of standards\20260205\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Standard\Europe\Travaux en cours\2021 eIDAS 2\9-Projets Européens\LSP\#4 APTITUDE\WP2\T.2.1.4\Identification of standards\20260218\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A941BFA8-EE33-4C32-AF3E-2E17FAB29511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF55C2F-AB41-4327-9EC1-C53341918EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="402">
   <si>
     <t>Applicable to credentials issuance process?</t>
   </si>
@@ -167,9 +167,6 @@
     <t>Draft</t>
   </si>
   <si>
-    <t>v1.0 draft05</t>
-  </si>
-  <si>
     <t>HAIP</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
     <t>Digital Credentials API</t>
   </si>
   <si>
-    <t>https://w3c-fedid.github.io/digital-credentials/</t>
-  </si>
-  <si>
     <t>https://www.w3.org/TR/vc-data-integrity/</t>
   </si>
   <si>
@@ -209,25 +203,16 @@
     <t>FIDO</t>
   </si>
   <si>
-    <t>CTAP</t>
-  </si>
-  <si>
     <t>WebAuthn</t>
   </si>
   <si>
     <t>VCDI</t>
   </si>
   <si>
-    <t>July 14, 2025</t>
-  </si>
-  <si>
     <t>https://fidoalliance.org/specs/fido-v2.2-ps-20250714/fido-client-to-authenticator-protocol-v2.2-ps-20250714.html</t>
   </si>
   <si>
     <t>8 April 2021</t>
-  </si>
-  <si>
-    <t>03 July 2025</t>
   </si>
   <si>
     <t>DC API</t>
@@ -278,9 +263,6 @@
   </si>
   <si>
     <t>Cards and security devices for personal identification — Building blocks for identity management via mobile devicesPart 2: Data objects and encoding rules for generic eID systems</t>
-  </si>
-  <si>
-    <t>CSC API version 2.2.0.0</t>
   </si>
   <si>
     <t>CSC</t>
@@ -407,9 +389,6 @@
   </si>
   <si>
     <t>Token Status List (TSL)</t>
-  </si>
-  <si>
-    <t>draft-ietf-oauth-status-list-16</t>
   </si>
   <si>
     <t>https://datatracker.ietf.org/doc/draft-ietf-oauth-status-list/</t>
@@ -976,6 +955,354 @@
   </si>
   <si>
     <t>February 5th 2026</t>
+  </si>
+  <si>
+    <t>Considered in STS Roadmap?</t>
+  </si>
+  <si>
+    <t>https://github.com/orgs/eu-digital-identity-wallet/projects/29/views/4?sliceBy%5Bvalue%5D=ISO</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Yes?</t>
+  </si>
+  <si>
+    <t>23220-5</t>
+  </si>
+  <si>
+    <t>Cards and security devices for personal identification - Building blocks for identity management via mobile devices; Part 5: Trust models and confidence level assessment</t>
+  </si>
+  <si>
+    <t>Blockchain and distributed ledger technologies — Guidelines for governance</t>
+  </si>
+  <si>
+    <t>Blockchain and distributed ledger technologies — Reference architecture</t>
+  </si>
+  <si>
+    <t>Electronic business eXtensible Markup Language (ebXML) Part 3: Registry and repository</t>
+  </si>
+  <si>
+    <t>ISO</t>
+  </si>
+  <si>
+    <t>15000-3</t>
+  </si>
+  <si>
+    <t>23220-7</t>
+  </si>
+  <si>
+    <t>Cards and security devices for personal identification — Building blocks for identity management via mobile devices, Part 7: Registration Authority Procedures for Mobile Document</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Securing Verifiable Credentials using JOSE and COSE</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/TR/vc-jose-cose/</t>
+  </si>
+  <si>
+    <t>Data Integrity EdDSA Cryptosuites v1.0: Achieving Data Integrity using EdDSA with Edwards curves</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/TR/vc-di-eddsa/</t>
+  </si>
+  <si>
+    <t>Data Integrity ECDSA Cryptosuites v1.0: Achieving Data Integrity using ECDSA with NIST-compliant curves</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/TR/vc-di-ecdsa/</t>
+  </si>
+  <si>
+    <t>Securing Verifiable Credentials using JOSE and COSE Interoperability Report</t>
+  </si>
+  <si>
+    <t>23 November 2025</t>
+  </si>
+  <si>
+    <t>https://w3c.github.io/vc-jose-cose-test-suite/</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/TR/digital-credentials/</t>
+  </si>
+  <si>
+    <t>29 January 2026</t>
+  </si>
+  <si>
+    <t>Data Integrity BBS Cryptosuites v1.0: Achieving Unlinkable Data Integrity with Pairing-based Cryptography</t>
+  </si>
+  <si>
+    <t>3 April 2025</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/TR/vc-di-bbs/</t>
+  </si>
+  <si>
+    <t>Subresource Integrity</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/TR/sri/</t>
+  </si>
+  <si>
+    <t>10 July 2025</t>
+  </si>
+  <si>
+    <t>CSC API Data Model for remote signature applications, V 1.0.0</t>
+  </si>
+  <si>
+    <t>https://cloudsignatureconsortium.org/wp-content/uploads/2025/10/csc-dm.pdf
+https://cloudsignatureconsortium.org/resources/download-api-specifications/</t>
+  </si>
+  <si>
+    <t>CSC API version 2.2.0.0 - Architectures and protocols for remote signature applications</t>
+  </si>
+  <si>
+    <t>CSC Data model</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>CSC Data Model Bindings – version 1.0.0</t>
+  </si>
+  <si>
+    <t>CSC Data model bindings</t>
+  </si>
+  <si>
+    <t>https://cloudsignatureconsortium.org/wp-content/uploads/2025/10/data-model-bindings.pdf
+https://cloudsignatureconsortium.org/resources/download-api-specifications/</t>
+  </si>
+  <si>
+    <t>24 December 2025 - v1.0</t>
+  </si>
+  <si>
+    <t>OpenID Connect for Identity Assurance Claims Registration</t>
+  </si>
+  <si>
+    <t>https://openid.net/specs/openid-connect-4-ida-claims-1_0-final.html</t>
+  </si>
+  <si>
+    <t>OpenID Connect Core 1.0 incorporating errata set 2</t>
+  </si>
+  <si>
+    <t>https://openid.net/specs/openid-connect-core-1_0.html</t>
+  </si>
+  <si>
+    <t>OpenID Identity Assurance Schema Definition 1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://openid.net/specs/openid-ida-verified-claims-1_0-final.html </t>
+  </si>
+  <si>
+    <t>Conformance tests for OID4VC</t>
+  </si>
+  <si>
+    <t>https://openid.net/certification/conformance-testing-for-openid-for-verifiable-presentations/</t>
+  </si>
+  <si>
+    <t>v2.2 July 14, 2025</t>
+  </si>
+  <si>
+    <t>FIDO Credential Exchange Format (CXF)</t>
+  </si>
+  <si>
+    <t>https://fidoalliance.org/specs/cx/cxf-v1.0-ps-20250814.html</t>
+  </si>
+  <si>
+    <t>August 14, 2025</t>
+  </si>
+  <si>
+    <t>Credential Exchange Protocol</t>
+  </si>
+  <si>
+    <t>FIDO CXP</t>
+  </si>
+  <si>
+    <t>FIDO CEP</t>
+  </si>
+  <si>
+    <t>FIDO CTAP</t>
+  </si>
+  <si>
+    <t>https://fidoalliance.org/specs/cx/cxp-v1.0-wd-20241003.html</t>
+  </si>
+  <si>
+    <t>October 03, 2024</t>
+  </si>
+  <si>
+    <t>IANA JSON Web Token Claims Registry</t>
+  </si>
+  <si>
+    <t>IANA - https://www.iana.org/assignments/jwt/jwt.xhtml
+JSON Web Token Claims - https://www.iana.org/assignments/jwt/jwt.xhtml#claims
+JWT Confirmation Methods - https://www.iana.org/assignments/jwt/jwt.xhtml#confirmation-methods</t>
+  </si>
+  <si>
+    <t>RFC 8259 - The JavaScript Object Notation (JSON) Data Interchange Format</t>
+  </si>
+  <si>
+    <t>https://datatracker.ietf.org/doc/rfc8259/</t>
+  </si>
+  <si>
+    <t>RFC 8259</t>
+  </si>
+  <si>
+    <t>RFC 8610 - Concise Data Definition Language (CDDL)</t>
+  </si>
+  <si>
+    <t>RFC 8610</t>
+  </si>
+  <si>
+    <t>https://www.rfc-editor.org/rfc/rfc8610.html</t>
+  </si>
+  <si>
+    <t>https://www.rfc-editor.org/rfc/rfc8943</t>
+  </si>
+  <si>
+    <t>RFC 8943 - Concise Binary Object Representation (CBOR) Tags for Date</t>
+  </si>
+  <si>
+    <t>RFC 8943</t>
+  </si>
+  <si>
+    <t>RFC 7515 - JSON Web Signature (JWS)</t>
+  </si>
+  <si>
+    <t>RFC 7515</t>
+  </si>
+  <si>
+    <t>https://www.rfc-editor.org/rfc/rfc7515</t>
+  </si>
+  <si>
+    <t>RFC 9562 - Universally Unique IDentifiers (UUIDs)</t>
+  </si>
+  <si>
+    <t>RFC 9562</t>
+  </si>
+  <si>
+    <t>https://www.ietf.org/rfc/rfc9562.pdf</t>
+  </si>
+  <si>
+    <t>RFC 9682 - Updates to the Concise Data Definition Language (CDDL) Grammar</t>
+  </si>
+  <si>
+    <t>RFC 9682</t>
+  </si>
+  <si>
+    <t>https://www.rfc-editor.org/rfc/rfc9682.pdf</t>
+  </si>
+  <si>
+    <t>RFC 8392 - CBOR Web Token (CWT)</t>
+  </si>
+  <si>
+    <t>RFC 8392</t>
+  </si>
+  <si>
+    <t>https://datatracker.ietf.org/doc/html/rfc8392</t>
+  </si>
+  <si>
+    <t>RFC 7516 - JSON Web Encryption (JWE)</t>
+  </si>
+  <si>
+    <t>RFC 7516</t>
+  </si>
+  <si>
+    <t>https://datatracker.ietf.org/doc/rfc7516/</t>
+  </si>
+  <si>
+    <t>RFC 9052 - CBOR Object Signing and Encryption (COSE): Structures and Process</t>
+  </si>
+  <si>
+    <t>RFC 9052</t>
+  </si>
+  <si>
+    <t>https://www.rfc-editor.org/rfc/rfc9052</t>
+  </si>
+  <si>
+    <t>RFC 7518 - JSON Web Algorithms (JWA)</t>
+  </si>
+  <si>
+    <t>RFC 7518</t>
+  </si>
+  <si>
+    <t>https://datatracker.ietf.org/doc/rfc7518/</t>
+  </si>
+  <si>
+    <t>draft-ietf-oauth-status-list-17</t>
+  </si>
+  <si>
+    <t>EUDI Wallet Held Attributes Access Control, operation and management</t>
+  </si>
+  <si>
+    <t>TS 18297</t>
+  </si>
+  <si>
+    <t>TS 119 605</t>
+  </si>
+  <si>
+    <t>TS 119 312</t>
+  </si>
+  <si>
+    <t>Electronic Signatures and Trust Infrastructures (ESI);
+Trusted lists;
+Procedures for using and interpreting trusted lists;
+Processing trusted lists and trusted list content</t>
+  </si>
+  <si>
+    <t>Electronic Signatures and Trust Infrastructures (ESI);
+Cryptographic Suites</t>
+  </si>
+  <si>
+    <t>https://www.etsi.org/deliver/etsi_ts/119300_119399/119312/01.05.01_60/ts_119312v010501p.pdf</t>
+  </si>
+  <si>
+    <t>7367-2</t>
+  </si>
+  <si>
+    <t>Personal identification — mdoc schemas
+Part 2: Mobile vehicle certificate</t>
+  </si>
+  <si>
+    <t>TS 119 615</t>
+  </si>
+  <si>
+    <t>Electronic Signatures and Infrastructures (ESI);
+Trusted lists;
+Procedures for using and interpreting European Union Member States national trusted lists</t>
+  </si>
+  <si>
+    <t>https://www.etsi.org/deliver/etsi_ts/119600_119699/119615/01.03.01_60/ts_119615v010301p.pdf</t>
+  </si>
+  <si>
+    <t>Further refined by IA?</t>
+  </si>
+  <si>
+    <t>COMMISSION IMPLEMENTING DECISION (EU) 2025/2164 of 27 October 2025
+amending Implementing Decision (EU) 2015/1505 as regards the version of the standard on which the common template for the trusted lists is based
+https://eur-lex.europa.eu/eli/dec_impl/2025/2164/oj/eng</t>
+  </si>
+  <si>
+    <t>DLT/Blockchain trust model is not consideredfor the moment for APTITUDE</t>
+  </si>
+  <si>
+    <t>This version is not considered by COMMISSION IMPLEMENTING DECISION (EU) 2025/2164 of 27 October 2025
+amending Implementing Decision (EU) 2015/1505 as regards the version of the standard on which the common template for the trusted lists is based
+https://eur-lex.europa.eu/eli/dec_impl/2025/2164/oj/eng</t>
+  </si>
+  <si>
+    <t>DLT/Blockchain trust model is not considered for the moment for APTITUDE</t>
+  </si>
+  <si>
+    <t>February 11th 2026</t>
+  </si>
+  <si>
+    <t>Trusted list (this version is obsolete)</t>
+  </si>
+  <si>
+    <t>February 18th 2026</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1340,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1062,8 +1389,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1203,12 +1536,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1278,6 +1624,73 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1317,6 +1730,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1608,41 +2022,41 @@
   <sheetData>
     <row r="5" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C6" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29"/>
+      <c r="C6" s="56" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
     </row>
     <row r="10" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1656,8 +2070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1667,30 +2081,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
-        <v>277</v>
-      </c>
-      <c r="B1" s="36"/>
+      <c r="A1" s="65" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="65"/>
     </row>
     <row r="2" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="69" t="s">
+        <v>401</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F12" s="2"/>
@@ -1705,41 +2131,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5036925-7692-419C-8C5D-2ADC49AF97FB}">
-  <dimension ref="A1:P63"/>
+  <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.54296875" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" customWidth="1"/>
-    <col min="5" max="6" width="14.36328125" customWidth="1"/>
-    <col min="7" max="7" width="106.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.08984375" customWidth="1"/>
-    <col min="9" max="9" width="37.54296875" customWidth="1"/>
-    <col min="10" max="10" width="42.81640625" customWidth="1"/>
-    <col min="11" max="11" width="48" customWidth="1"/>
-    <col min="12" max="12" width="41.08984375" customWidth="1"/>
-    <col min="13" max="13" width="54.81640625" customWidth="1"/>
-    <col min="14" max="14" width="34.1796875" customWidth="1"/>
-    <col min="15" max="15" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.1796875" customWidth="1"/>
+    <col min="3" max="4" width="18.54296875" customWidth="1"/>
+    <col min="5" max="5" width="26.08984375" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" customWidth="1"/>
+    <col min="7" max="7" width="106.08984375" customWidth="1"/>
+    <col min="8" max="8" width="48.6328125" customWidth="1"/>
+    <col min="9" max="9" width="37.453125" customWidth="1"/>
+    <col min="10" max="10" width="26.08984375" customWidth="1"/>
+    <col min="11" max="11" width="37.54296875" customWidth="1"/>
+    <col min="12" max="12" width="42.81640625" customWidth="1"/>
+    <col min="13" max="13" width="48" customWidth="1"/>
+    <col min="14" max="14" width="41.08984375" customWidth="1"/>
+    <col min="15" max="15" width="54.81640625" customWidth="1"/>
+    <col min="16" max="16" width="34.1796875" customWidth="1"/>
+    <col min="17" max="17" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>23</v>
@@ -1748,40 +2176,46 @@
         <v>5</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>155</v>
+        <v>291</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R1" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1789,38 +2223,42 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>290</v>
-      </c>
+      <c r="H2" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
       <c r="K2" s="6" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="P2" s="26" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="64" customHeight="1" x14ac:dyDescent="0.35">
+        <v>286</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="64" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>201</v>
+        <v>385</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>137</v>
+        <v>387</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
@@ -1829,140 +2267,152 @@
         <v>24</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>90</v>
+        <v>388</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+        <v>293</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="19" t="s">
-        <v>9</v>
-      </c>
+      <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="O3" s="36"/>
       <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="64" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="64" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>226</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="11"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" ht="95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q6" s="11"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>22</v>
@@ -1971,252 +2421,282 @@
         <v>24</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="12"/>
+      <c r="G7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q7" s="11"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>221</v>
+        <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="34"/>
+    </row>
+    <row r="9" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>24</v>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="19" t="s">
-        <v>9</v>
-      </c>
+      <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="O9" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q9" s="11"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" ht="95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>28</v>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="G10" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" ht="75.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q10" s="12"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
       <c r="K11" s="19" t="s">
         <v>9</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="19" t="s">
-        <v>9</v>
-      </c>
+      <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="O12" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" ht="78.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>87</v>
+        <v>28</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="1"/>
+      <c r="N13" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" ht="75.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>30</v>
@@ -2225,98 +2705,116 @@
         <v>43</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="1"/>
+      <c r="N14" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>211</v>
+        <v>122</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="19" t="s">
-        <v>9</v>
-      </c>
+      <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="O15" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" ht="78.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>289</v>
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="19" t="s">
-        <v>9</v>
-      </c>
+      <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="O16" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" ht="98" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>30</v>
@@ -2325,26 +2823,30 @@
         <v>43</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="16"/>
-    </row>
-    <row r="18" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>22</v>
@@ -2353,32 +2855,36 @@
         <v>24</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="16"/>
-    </row>
-    <row r="19" spans="1:16" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>22</v>
@@ -2387,134 +2893,148 @@
         <v>24</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>29</v>
+        <v>282</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="16"/>
-    </row>
-    <row r="20" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" ht="98" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
-      <c r="O20" s="15"/>
+      <c r="O20" s="16"/>
       <c r="P20" s="16"/>
-    </row>
-    <row r="21" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="Q20" s="15"/>
+      <c r="R20" s="16"/>
+    </row>
+    <row r="21" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
+        <v>89</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15" t="s">
+        <v>215</v>
+      </c>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
-      <c r="O21" s="15"/>
+      <c r="O21" s="16"/>
       <c r="P21" s="16"/>
-    </row>
-    <row r="22" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>217</v>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="16"/>
+    </row>
+    <row r="22" spans="1:18" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>30</v>
+      <c r="D22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
+        <v>90</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15" t="s">
+        <v>215</v>
+      </c>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
-      <c r="O22" s="15"/>
+      <c r="O22" s="16"/>
       <c r="P22" s="16"/>
-    </row>
-    <row r="23" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>218</v>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="16"/>
+    </row>
+    <row r="23" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>22</v>
@@ -2523,38 +3043,42 @@
         <v>31</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
+        <v>91</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15" t="s">
+        <v>215</v>
+      </c>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
-      <c r="O23" s="15"/>
+      <c r="O23" s="16"/>
       <c r="P23" s="16"/>
-    </row>
-    <row r="24" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>219</v>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="16"/>
+    </row>
+    <row r="24" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>29</v>
@@ -2563,26 +3087,30 @@
         <v>43</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
+        <v>92</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15" t="s">
+        <v>215</v>
+      </c>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
-      <c r="O24" s="15"/>
+      <c r="O24" s="16"/>
       <c r="P24" s="16"/>
-    </row>
-    <row r="25" spans="1:16" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q24" s="15"/>
+      <c r="R24" s="16"/>
+    </row>
+    <row r="25" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>22</v>
@@ -2591,355 +3119,399 @@
         <v>31</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
+        <v>93</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15" t="s">
+        <v>215</v>
+      </c>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
-      <c r="O25" s="15"/>
+      <c r="O25" s="16"/>
       <c r="P25" s="16"/>
-    </row>
-    <row r="26" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q25" s="15"/>
+      <c r="R25" s="16"/>
+    </row>
+    <row r="26" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>281</v>
+        <v>211</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>280</v>
+        <v>142</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>278</v>
+        <v>22</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="16"/>
+    </row>
+    <row r="27" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="16"/>
+    </row>
+    <row r="28" spans="1:18" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="16"/>
+    </row>
+    <row r="29" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J26" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="E29" s="1"/>
+      <c r="F29" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="31"/>
+      <c r="H30" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="27"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B31" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="8"/>
-      <c r="L27" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="M27" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N27" s="17"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A28" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L28" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="M28" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N28" s="17"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="I29" s="17"/>
-      <c r="J29" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J30" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L30" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="M30" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-      <c r="B31" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
+        <v>36</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
       <c r="K31" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A32" s="1"/>
-      <c r="B32" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="L31" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M31" s="8"/>
+      <c r="N31" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O31" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="1"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A32" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
       <c r="M32" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N32" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O32" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="7" t="s">
-        <v>119</v>
+        <v>337</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="H33" s="18"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="M33" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N33" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O33" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>50</v>
+        <v>216</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H34" s="3"/>
+      <c r="G34" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>304</v>
+      </c>
       <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
+      <c r="J34" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="K34" s="17"/>
       <c r="L34" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="M34" s="17"/>
+      <c r="M34" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="N34" s="17"/>
       <c r="O34" s="17"/>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="1"/>
+    </row>
+    <row r="35" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>36</v>
+        <v>330</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
+      <c r="G35" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
       <c r="K35" s="19" t="s">
         <v>9</v>
       </c>
@@ -2949,283 +3521,277 @@
       <c r="M35" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N35" s="8"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="N35" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O35" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A36" s="1"/>
       <c r="B36" s="7" t="s">
-        <v>152</v>
+        <v>333</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G36" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="I36" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J36" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K36" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="G36" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="1"/>
+    </row>
+    <row r="37" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="1"/>
       <c r="B37" s="7" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
+        <v>44</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
-      <c r="M37" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="N37" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="O37" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="P37" s="1"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>171</v>
-      </c>
+      <c r="M37" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="1"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A38" s="1"/>
       <c r="B38" s="7" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>183</v>
+        <v>111</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G38" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="H38" s="24"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L38" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="M38" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>182</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="1"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A39" s="1"/>
       <c r="B39" s="7" t="s">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="H39" s="24"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
+        <v>44</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
       <c r="K39" s="17"/>
-      <c r="L39" s="23" t="s">
-        <v>9</v>
-      </c>
+      <c r="L39" s="17"/>
       <c r="M39" s="17"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="7" t="s">
+      <c r="N39" s="17"/>
+      <c r="O39" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="1"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A40" s="27"/>
+      <c r="B40" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="27"/>
+    </row>
+    <row r="41" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="27"/>
+      <c r="B41" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="27"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="1"/>
+    </row>
+    <row r="43" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H40" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:16" ht="84" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H41" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="I41" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J41" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K41" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="1:16" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H43" s="3"/>
+      <c r="H43" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
+      <c r="J43" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
       <c r="M43" s="19" t="s">
         <v>9</v>
       </c>
@@ -3235,65 +3801,73 @@
       <c r="O43" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="P43" s="1"/>
-    </row>
-    <row r="44" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="H44" s="3"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="1"/>
+    </row>
+    <row r="44" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="34"/>
+      <c r="B44" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="H44" s="34" t="s">
+        <v>293</v>
+      </c>
       <c r="I44" s="17"/>
       <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
       <c r="M44" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="1"/>
-    </row>
-    <row r="45" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H45" s="3"/>
+      <c r="N44" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O44" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+    </row>
+    <row r="45" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="34"/>
+      <c r="B45" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="H45" s="34" t="s">
+        <v>293</v>
+      </c>
       <c r="I45" s="17"/>
       <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
       <c r="M45" s="19" t="s">
         <v>9</v>
       </c>
@@ -3303,349 +3877,379 @@
       <c r="O45" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="P45" s="1"/>
-    </row>
-    <row r="46" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+    </row>
+    <row r="46" spans="1:18" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>172</v>
+        <v>57</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="F46" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H46" s="3"/>
+      <c r="G46" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="I46" s="17"/>
-      <c r="J46" s="19" t="s">
-        <v>9</v>
+      <c r="J46" s="17" t="s">
+        <v>228</v>
       </c>
       <c r="K46" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
+      <c r="L46" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M46" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="1"/>
-    </row>
-    <row r="47" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O46" s="22"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="1"/>
+    </row>
+    <row r="47" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="F47" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H47" s="17"/>
+      <c r="G47" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="H47" s="33" t="s">
+        <v>304</v>
+      </c>
       <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
+      <c r="J47" s="17" t="s">
+        <v>229</v>
+      </c>
       <c r="K47" s="17"/>
-      <c r="L47" s="19" t="s">
-        <v>9</v>
-      </c>
+      <c r="L47" s="17"/>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="1"/>
-    </row>
-    <row r="48" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O47" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="P47" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q47" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="R47" s="1"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E48" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="F48" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
+      <c r="G48" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="H48" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
       <c r="K48" s="17"/>
-      <c r="L48" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="1"/>
-    </row>
-    <row r="49" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L48" s="17"/>
+      <c r="M48" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N48" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="O48" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="1"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="F49" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
+      <c r="G49" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="H49" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
       <c r="K49" s="17"/>
-      <c r="L49" s="19" t="s">
-        <v>9</v>
-      </c>
+      <c r="L49" s="17"/>
       <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
+      <c r="N49" s="23" t="s">
+        <v>9</v>
+      </c>
       <c r="O49" s="17"/>
-      <c r="P49" s="1"/>
-    </row>
-    <row r="50" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="1"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>192</v>
+        <v>61</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>72</v>
+        <v>315</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H50" s="17" t="s">
-        <v>157</v>
+        <v>314</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
+      <c r="J50" s="17" t="s">
+        <v>97</v>
+      </c>
       <c r="K50" s="17"/>
-      <c r="L50" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="M50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="N50" s="17"/>
       <c r="O50" s="17"/>
-      <c r="P50" s="1"/>
-    </row>
-    <row r="51" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H51" s="17" t="s">
-        <v>158</v>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="1"/>
+    </row>
+    <row r="51" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="34"/>
+      <c r="B51" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F51" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="H51" s="34" t="s">
+        <v>293</v>
       </c>
       <c r="I51" s="17"/>
       <c r="J51" s="17"/>
-      <c r="K51" s="19" t="s">
-        <v>9</v>
-      </c>
+      <c r="K51" s="17"/>
       <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
+      <c r="M51" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N51" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="O51" s="17"/>
-      <c r="P51" s="1"/>
-    </row>
-    <row r="52" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F52" s="1" t="s">
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="34"/>
+    </row>
+    <row r="52" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="34"/>
+      <c r="B52" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="F52" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="H52" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N52" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="34"/>
+    </row>
+    <row r="53" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="34"/>
+      <c r="B53" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="F53" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K52" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="1"/>
-    </row>
-    <row r="53" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H53" s="17" t="s">
-        <v>236</v>
+      <c r="G53" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="H53" s="34" t="s">
+        <v>293</v>
       </c>
       <c r="I53" s="17"/>
       <c r="J53" s="17"/>
       <c r="K53" s="17"/>
       <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
+      <c r="M53" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="N53" s="19" t="s">
         <v>9</v>
       </c>
       <c r="O53" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="P53" s="1"/>
-    </row>
-    <row r="54" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E54" s="1">
-        <v>2021</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L54" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="M54" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N54" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="O54" s="17"/>
-      <c r="P54" s="1"/>
-    </row>
-    <row r="55" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="P53" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="34"/>
+    </row>
+    <row r="54" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="27"/>
+      <c r="B54" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G54" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="H54" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="27"/>
+    </row>
+    <row r="55" spans="1:18" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>76</v>
+        <v>346</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>75</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="7" t="s">
-        <v>287</v>
+        <v>43</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H55" s="34" t="s">
+        <v>293</v>
       </c>
       <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
+      <c r="J55" s="17" t="s">
+        <v>228</v>
+      </c>
       <c r="K55" s="19" t="s">
         <v>9</v>
       </c>
@@ -3655,323 +4259,1588 @@
       <c r="M55" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N55" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="O55" s="17"/>
-      <c r="P55" s="1"/>
-    </row>
-    <row r="56" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E56" s="1">
-        <v>2025</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G56" s="1"/>
-      <c r="H56" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L56" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="M56" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N56" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="O56" s="17"/>
-      <c r="P56" s="1"/>
-    </row>
-    <row r="57" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F57" s="1" t="s">
+      <c r="N55" s="37"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="38"/>
+      <c r="Q55" s="38"/>
+      <c r="R55" s="39"/>
+    </row>
+    <row r="56" spans="1:18" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G56" s="43" t="s">
+        <v>341</v>
+      </c>
+      <c r="H56" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="44"/>
+    </row>
+    <row r="57" spans="1:18" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G57" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="H57" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="45"/>
+      <c r="O57" s="46"/>
+      <c r="P57" s="47"/>
+      <c r="Q57" s="47"/>
+      <c r="R57" s="44"/>
+    </row>
+    <row r="58" spans="1:18" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G57" s="1"/>
-      <c r="H57" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L57" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="M57" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N57" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="O57" s="17"/>
-      <c r="P57" s="1"/>
-    </row>
-    <row r="58" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="B58" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E58" s="1">
-        <v>2023</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J58" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K58" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
+      <c r="G58" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H58" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
       <c r="O58" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="P58" s="1"/>
-    </row>
-    <row r="59" spans="1:16" ht="59" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P58" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q58" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="R58" s="1"/>
+    </row>
+    <row r="59" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E59" s="1">
-        <v>2024</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
+      <c r="G59" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H59" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="17"/>
       <c r="L59" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="M59" s="1"/>
+      <c r="M59" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="N59" s="17"/>
       <c r="O59" s="17"/>
-      <c r="P59" s="1"/>
-    </row>
-    <row r="60" spans="1:16" ht="76" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="1"/>
+    </row>
+    <row r="60" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H60" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
       <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="1"/>
-    </row>
-    <row r="61" spans="1:16" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
+      <c r="O60" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P60" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q60" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="R60" s="1"/>
+    </row>
+    <row r="61" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G61" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="H61" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="28"/>
+      <c r="P61" s="28"/>
+      <c r="Q61" s="28"/>
+      <c r="R61" s="27"/>
+    </row>
+    <row r="62" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G62" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="H62" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="28"/>
+      <c r="P62" s="28"/>
+      <c r="Q62" s="28"/>
+      <c r="R62" s="27"/>
+    </row>
+    <row r="63" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G63" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="H63" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="28"/>
+      <c r="P63" s="28"/>
+      <c r="Q63" s="28"/>
+      <c r="R63" s="27"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="B64" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H64" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
+      <c r="R64" s="1"/>
+    </row>
+    <row r="65" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H65" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
+      <c r="R65" s="1"/>
+    </row>
+    <row r="66" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G66" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="H66" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="28"/>
+      <c r="Q66" s="28"/>
+      <c r="R66" s="27"/>
+    </row>
+    <row r="67" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G67" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="H67" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="28"/>
+      <c r="P67" s="28"/>
+      <c r="Q67" s="28"/>
+      <c r="R67" s="27"/>
+    </row>
+    <row r="68" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G68" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="H68" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="28"/>
+      <c r="P68" s="28"/>
+      <c r="Q68" s="28"/>
+      <c r="R68" s="27"/>
+    </row>
+    <row r="69" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G69" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="H69" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="28"/>
+      <c r="O69" s="28"/>
+      <c r="P69" s="28"/>
+      <c r="Q69" s="28"/>
+      <c r="R69" s="27"/>
+    </row>
+    <row r="70" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H70" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
+      <c r="R70" s="1"/>
+    </row>
+    <row r="71" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G71" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="H71" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="28"/>
+      <c r="P71" s="28"/>
+      <c r="Q71" s="28"/>
+      <c r="R71" s="27"/>
+    </row>
+    <row r="72" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H72" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
+      <c r="R72" s="1"/>
+    </row>
+    <row r="73" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G73" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="H73" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="28"/>
+      <c r="M73" s="28"/>
+      <c r="N73" s="28"/>
+      <c r="O73" s="28"/>
+      <c r="P73" s="28"/>
+      <c r="Q73" s="28"/>
+      <c r="R73" s="27"/>
+    </row>
+    <row r="74" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G74" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="H74" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="28"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="28"/>
+      <c r="O74" s="28"/>
+      <c r="P74" s="28"/>
+      <c r="Q74" s="28"/>
+      <c r="R74" s="27"/>
+    </row>
+    <row r="75" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H75" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
+      <c r="R75" s="1"/>
+    </row>
+    <row r="76" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H76" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
+      <c r="R76" s="1"/>
+    </row>
+    <row r="77" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H77" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
+      <c r="R77" s="1"/>
+    </row>
+    <row r="78" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H78" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M78" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
+      <c r="R78" s="1"/>
+    </row>
+    <row r="79" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q79" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="R79" s="1"/>
+    </row>
+    <row r="80" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="C80" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E80" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N80" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O80" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P80" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q80" s="17"/>
+      <c r="R80" s="1"/>
+    </row>
+    <row r="81" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N81" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O81" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P81" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q81" s="17"/>
+      <c r="R81" s="1"/>
+    </row>
+    <row r="82" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L61" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="M61" s="1"/>
-      <c r="N61" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="O61" s="17"/>
-      <c r="P61" s="1"/>
-    </row>
-    <row r="62" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="16"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
+      <c r="E82" s="1">
+        <v>2025</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N82" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O82" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P82" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q82" s="17"/>
+      <c r="R82" s="1"/>
+    </row>
+    <row r="83" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
+      <c r="M83" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N83" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O83" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P83" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q83" s="17"/>
+      <c r="R83" s="1"/>
+    </row>
+    <row r="84" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G84" s="1"/>
+      <c r="H84" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L84" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M84" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="R84" s="1"/>
+    </row>
+    <row r="85" spans="1:18" ht="59" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O85" s="1"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
+      <c r="R85" s="1"/>
+    </row>
+    <row r="86" spans="1:18" ht="76" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
+      <c r="R86" s="1"/>
+    </row>
+    <row r="87" spans="1:18" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N87" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O87" s="1"/>
+      <c r="P87" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q87" s="17"/>
+      <c r="R87" s="1"/>
+    </row>
+    <row r="88" spans="1:18" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C88" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D88" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="I88" s="34"/>
+      <c r="J88" s="34"/>
+      <c r="K88" s="34"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="36"/>
+      <c r="O88" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P88" s="36"/>
+      <c r="Q88" s="17"/>
+      <c r="R88" s="34"/>
+    </row>
+    <row r="89" spans="1:18" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="C89" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="I89" s="34"/>
+      <c r="J89" s="34"/>
+      <c r="K89" s="34"/>
+      <c r="L89" s="34"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O89" s="34"/>
+      <c r="P89" s="36"/>
+      <c r="Q89" s="17"/>
+      <c r="R89" s="34"/>
+    </row>
+    <row r="90" spans="1:18" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="49" t="s">
+        <v>389</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C90" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D90" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" s="34"/>
+      <c r="F90" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="G90" s="34"/>
+      <c r="H90" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="I90" s="34"/>
+      <c r="J90" s="34"/>
+      <c r="K90" s="34"/>
+      <c r="L90" s="34"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O90" s="34"/>
+      <c r="P90" s="36"/>
+      <c r="Q90" s="17"/>
+      <c r="R90" s="34"/>
+    </row>
+    <row r="91" spans="1:18" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="51">
+        <v>23635</v>
+      </c>
+      <c r="B91" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="C91" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D91" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" s="53">
+        <v>2022</v>
+      </c>
+      <c r="F91" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="G91" s="53"/>
+      <c r="H91" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="I91" s="53"/>
+      <c r="J91" s="52" t="s">
+        <v>398</v>
+      </c>
+      <c r="K91" s="53"/>
+      <c r="L91" s="53"/>
+      <c r="M91" s="54"/>
+      <c r="N91" s="54"/>
+      <c r="O91" s="53"/>
+      <c r="P91" s="54"/>
+      <c r="Q91" s="52"/>
+      <c r="R91" s="53"/>
+    </row>
+    <row r="92" spans="1:18" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="55">
+        <v>23257</v>
+      </c>
+      <c r="B92" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="C92" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D92" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="E92" s="52">
+        <v>2022</v>
+      </c>
+      <c r="F92" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="G92" s="53"/>
+      <c r="H92" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="I92" s="53"/>
+      <c r="J92" s="52" t="s">
+        <v>398</v>
+      </c>
+      <c r="K92" s="53"/>
+      <c r="L92" s="53"/>
+      <c r="M92" s="54"/>
+      <c r="N92" s="54"/>
+      <c r="O92" s="53"/>
+      <c r="P92" s="54"/>
+      <c r="Q92" s="52"/>
+      <c r="R92" s="53"/>
+    </row>
+    <row r="93" spans="1:18" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="B93" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="C93" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D93" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E93" s="28">
+        <v>2023</v>
+      </c>
+      <c r="F93" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="I93" s="27"/>
+      <c r="J93" s="27"/>
+      <c r="K93" s="27"/>
+      <c r="L93" s="27"/>
+      <c r="M93" s="29"/>
+      <c r="N93" s="29"/>
+      <c r="O93" s="27"/>
+      <c r="P93" s="29"/>
+      <c r="Q93" s="28"/>
+      <c r="R93" s="27"/>
+    </row>
+    <row r="94" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I94" s="15"/>
+      <c r="J94" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="K94" s="16"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="16"/>
+      <c r="N94" s="16"/>
+      <c r="O94" s="16"/>
+      <c r="P94" s="16"/>
+      <c r="Q94" s="15"/>
+      <c r="R94" s="16"/>
+    </row>
+    <row r="95" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I95" s="15"/>
+      <c r="J95" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="K95" s="16"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="16"/>
+      <c r="N95" s="16"/>
+      <c r="O95" s="16"/>
+      <c r="P95" s="16"/>
+      <c r="Q95" s="15"/>
+      <c r="R95" s="16"/>
+    </row>
+    <row r="96" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I96" s="15"/>
+      <c r="J96" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="K96" s="16"/>
+      <c r="L96" s="16"/>
+      <c r="M96" s="16"/>
+      <c r="N96" s="16"/>
+      <c r="O96" s="16"/>
+      <c r="P96" s="16"/>
+      <c r="Q96" s="15"/>
+      <c r="R96" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G27" r:id="rId1" xr:uid="{68D049FA-0449-4FDC-9758-A691E1E95BA6}"/>
-    <hyperlink ref="G28" r:id="rId2" xr:uid="{DA3C1069-772E-4206-A774-454B4B01BAC9}"/>
-    <hyperlink ref="G30" r:id="rId3" xr:uid="{1D4759F5-7F09-4A4C-AF3A-03569A5F3AAE}"/>
-    <hyperlink ref="G34" r:id="rId4" xr:uid="{01627E92-0192-4E21-B848-296051B43A70}"/>
-    <hyperlink ref="G40" r:id="rId5" xr:uid="{55C28825-0C59-4D89-887D-AE84EC8875CE}"/>
-    <hyperlink ref="G35" r:id="rId6" xr:uid="{0627B32B-2126-47E4-B979-17BF4E540952}"/>
-    <hyperlink ref="G36" r:id="rId7" xr:uid="{34E1477C-97E3-4FF0-8FE7-EB146AC78A58}"/>
-    <hyperlink ref="G41" r:id="rId8" xr:uid="{D8182381-4AD7-4968-B402-8F700C1DF51F}"/>
-    <hyperlink ref="G42" r:id="rId9" xr:uid="{22F9D664-5980-4215-B7A6-C31257E8254A}"/>
-    <hyperlink ref="G50" r:id="rId10" xr:uid="{3F7F97D7-D36E-43BE-99EE-B0EFD22E7107}"/>
-    <hyperlink ref="G62" r:id="rId11" xr:uid="{73182E68-4B5B-4A76-B0E8-226E12623258}"/>
-    <hyperlink ref="G4" r:id="rId12" xr:uid="{63D391E9-E7F9-4B82-A31D-89AE2337EC30}"/>
-    <hyperlink ref="G7" r:id="rId13" xr:uid="{33FC56EC-B5F2-41BF-B8AC-1A47380619C0}"/>
-    <hyperlink ref="G3" r:id="rId14" xr:uid="{4F60963F-EA8C-42AB-AAD6-6915A0B14462}"/>
-    <hyperlink ref="G8" r:id="rId15" xr:uid="{CF5AE52B-A2A4-4B87-A62F-142B56355282}"/>
-    <hyperlink ref="G10" r:id="rId16" xr:uid="{47FFB7BB-30EB-4CAD-A505-4F77CE3111BB}"/>
-    <hyperlink ref="G11" r:id="rId17" xr:uid="{95E5559A-BF2C-45D1-8DE8-58C9783E161B}"/>
-    <hyperlink ref="G17" r:id="rId18" xr:uid="{F00D5E05-23B9-4908-8B07-20F25B3F8DAB}"/>
-    <hyperlink ref="G18" r:id="rId19" xr:uid="{22A4B5B5-3271-44F1-96DA-C860A0A76389}"/>
-    <hyperlink ref="G19" r:id="rId20" xr:uid="{00724218-CED6-43C3-B3C9-6CD74F8231C9}"/>
-    <hyperlink ref="G20" r:id="rId21" xr:uid="{BCB4A7F5-5BF7-40CF-80C1-3C35B7C5B1D5}"/>
-    <hyperlink ref="G21" r:id="rId22" xr:uid="{E500391A-98B9-43A0-87F8-A92554C47A4F}"/>
-    <hyperlink ref="G22" r:id="rId23" xr:uid="{1388BD09-C0F1-492B-BDCF-9CC342B707E7}"/>
-    <hyperlink ref="G23" r:id="rId24" xr:uid="{D5033FB3-D5E9-419D-9842-D12AAFBA651B}"/>
-    <hyperlink ref="G24" r:id="rId25" xr:uid="{B701F0AD-6521-415A-9E2A-337A2D63B596}"/>
-    <hyperlink ref="G25" r:id="rId26" xr:uid="{47763DF3-1806-4D31-868B-30E07E29405A}"/>
-    <hyperlink ref="G51" r:id="rId27" xr:uid="{3E28B835-650F-4288-B8B3-693DB0831FA1}"/>
-    <hyperlink ref="G31" r:id="rId28" xr:uid="{28238B60-71B7-4BE6-A16A-E3A82360EAD6}"/>
-    <hyperlink ref="G43" r:id="rId29" xr:uid="{664F615F-BF79-4333-AFF9-35CC31E97E75}"/>
-    <hyperlink ref="G32" r:id="rId30" xr:uid="{BD066313-CCC0-48CB-98BB-4172D3AF496A}"/>
-    <hyperlink ref="G33" r:id="rId31" xr:uid="{FDCAD764-DAE6-4F5F-898F-7921936AAFC1}"/>
-    <hyperlink ref="G45" r:id="rId32" xr:uid="{1ED4A24A-2978-4059-A862-FB51A641BBD5}"/>
-    <hyperlink ref="G53" r:id="rId33" xr:uid="{4DA1F258-17F2-4D98-9F96-D5360536BC68}"/>
-    <hyperlink ref="G37" r:id="rId34" xr:uid="{8140AF6F-8469-4542-846A-B6BEAE20CEB9}"/>
-    <hyperlink ref="G12" r:id="rId35" xr:uid="{29F6DA09-F807-4CCC-B665-6456BEB45377}"/>
-    <hyperlink ref="G29" r:id="rId36" xr:uid="{5D816783-2B5C-472A-A7CD-F52A0ADDE7CE}"/>
-    <hyperlink ref="G6" r:id="rId37" xr:uid="{E84CB565-E0CD-4BD5-A775-AACBEE9358FA}"/>
-    <hyperlink ref="G38" r:id="rId38" xr:uid="{19B48423-8B31-4E7A-8ED7-9F308201DBFA}"/>
-    <hyperlink ref="G46" r:id="rId39" xr:uid="{53E89903-5FFD-4603-8FE5-ED185F739446}"/>
-    <hyperlink ref="G52" r:id="rId40" xr:uid="{C0D352B9-A615-4F90-8055-AAD94D520C16}"/>
-    <hyperlink ref="G48" r:id="rId41" xr:uid="{E68DEB40-6768-4106-A762-A30AE5594359}"/>
-    <hyperlink ref="G49" r:id="rId42" xr:uid="{D868423B-F860-45DC-A816-3B791D958AA4}"/>
-    <hyperlink ref="G44" r:id="rId43" xr:uid="{5B0A320D-82B9-4045-9078-4D51E0BF5387}"/>
-    <hyperlink ref="G39" r:id="rId44" xr:uid="{CEA402B1-A6D1-431E-B572-EE2D5A56008B}"/>
-    <hyperlink ref="G5" r:id="rId45" xr:uid="{B419CFA2-8AB9-4E4A-BD3F-829C637605C1}"/>
+    <hyperlink ref="G31" r:id="rId1" xr:uid="{68D049FA-0449-4FDC-9758-A691E1E95BA6}"/>
+    <hyperlink ref="G32" r:id="rId2" xr:uid="{DA3C1069-772E-4206-A774-454B4B01BAC9}"/>
+    <hyperlink ref="G35" r:id="rId3" xr:uid="{1D4759F5-7F09-4A4C-AF3A-03569A5F3AAE}"/>
+    <hyperlink ref="G42" r:id="rId4" xr:uid="{01627E92-0192-4E21-B848-296051B43A70}"/>
+    <hyperlink ref="G50" r:id="rId5" xr:uid="{55C28825-0C59-4D89-887D-AE84EC8875CE}"/>
+    <hyperlink ref="G43" r:id="rId6" xr:uid="{0627B32B-2126-47E4-B979-17BF4E540952}"/>
+    <hyperlink ref="G46" r:id="rId7" xr:uid="{34E1477C-97E3-4FF0-8FE7-EB146AC78A58}"/>
+    <hyperlink ref="G55" r:id="rId8" xr:uid="{D8182381-4AD7-4968-B402-8F700C1DF51F}"/>
+    <hyperlink ref="G64" r:id="rId9" xr:uid="{22F9D664-5980-4215-B7A6-C31257E8254A}"/>
+    <hyperlink ref="G76" r:id="rId10" xr:uid="{3F7F97D7-D36E-43BE-99EE-B0EFD22E7107}"/>
+    <hyperlink ref="G94" r:id="rId11" xr:uid="{73182E68-4B5B-4A76-B0E8-226E12623258}"/>
+    <hyperlink ref="G6" r:id="rId12" xr:uid="{63D391E9-E7F9-4B82-A31D-89AE2337EC30}"/>
+    <hyperlink ref="G10" r:id="rId13" xr:uid="{33FC56EC-B5F2-41BF-B8AC-1A47380619C0}"/>
+    <hyperlink ref="G4" r:id="rId14" xr:uid="{4F60963F-EA8C-42AB-AAD6-6915A0B14462}"/>
+    <hyperlink ref="G11" r:id="rId15" xr:uid="{CF5AE52B-A2A4-4B87-A62F-142B56355282}"/>
+    <hyperlink ref="G13" r:id="rId16" xr:uid="{47FFB7BB-30EB-4CAD-A505-4F77CE3111BB}"/>
+    <hyperlink ref="G14" r:id="rId17" xr:uid="{95E5559A-BF2C-45D1-8DE8-58C9783E161B}"/>
+    <hyperlink ref="G20" r:id="rId18" xr:uid="{F00D5E05-23B9-4908-8B07-20F25B3F8DAB}"/>
+    <hyperlink ref="G21" r:id="rId19" xr:uid="{22A4B5B5-3271-44F1-96DA-C860A0A76389}"/>
+    <hyperlink ref="G22" r:id="rId20" xr:uid="{00724218-CED6-43C3-B3C9-6CD74F8231C9}"/>
+    <hyperlink ref="G23" r:id="rId21" xr:uid="{BCB4A7F5-5BF7-40CF-80C1-3C35B7C5B1D5}"/>
+    <hyperlink ref="G24" r:id="rId22" xr:uid="{E500391A-98B9-43A0-87F8-A92554C47A4F}"/>
+    <hyperlink ref="G25" r:id="rId23" xr:uid="{1388BD09-C0F1-492B-BDCF-9CC342B707E7}"/>
+    <hyperlink ref="G26" r:id="rId24" xr:uid="{D5033FB3-D5E9-419D-9842-D12AAFBA651B}"/>
+    <hyperlink ref="G27" r:id="rId25" xr:uid="{B701F0AD-6521-415A-9E2A-337A2D63B596}"/>
+    <hyperlink ref="G28" r:id="rId26" xr:uid="{47763DF3-1806-4D31-868B-30E07E29405A}"/>
+    <hyperlink ref="G77" r:id="rId27" xr:uid="{3E28B835-650F-4288-B8B3-693DB0831FA1}"/>
+    <hyperlink ref="G37" r:id="rId28" xr:uid="{28238B60-71B7-4BE6-A16A-E3A82360EAD6}"/>
+    <hyperlink ref="G58" r:id="rId29" xr:uid="{664F615F-BF79-4333-AFF9-35CC31E97E75}"/>
+    <hyperlink ref="G38" r:id="rId30" xr:uid="{BD066313-CCC0-48CB-98BB-4172D3AF496A}"/>
+    <hyperlink ref="G39" r:id="rId31" xr:uid="{FDCAD764-DAE6-4F5F-898F-7921936AAFC1}"/>
+    <hyperlink ref="G60" r:id="rId32" xr:uid="{1ED4A24A-2978-4059-A862-FB51A641BBD5}"/>
+    <hyperlink ref="G79" r:id="rId33" xr:uid="{4DA1F258-17F2-4D98-9F96-D5360536BC68}"/>
+    <hyperlink ref="G47" r:id="rId34" xr:uid="{8140AF6F-8469-4542-846A-B6BEAE20CEB9}"/>
+    <hyperlink ref="G15" r:id="rId35" xr:uid="{29F6DA09-F807-4CCC-B665-6456BEB45377}"/>
+    <hyperlink ref="G34" r:id="rId36" xr:uid="{5D816783-2B5C-472A-A7CD-F52A0ADDE7CE}"/>
+    <hyperlink ref="G9" r:id="rId37" xr:uid="{E84CB565-E0CD-4BD5-A775-AACBEE9358FA}"/>
+    <hyperlink ref="G48" r:id="rId38" xr:uid="{19B48423-8B31-4E7A-8ED7-9F308201DBFA}"/>
+    <hyperlink ref="G59" r:id="rId39" xr:uid="{53E89903-5FFD-4603-8FE5-ED185F739446}"/>
+    <hyperlink ref="G78" r:id="rId40" xr:uid="{C0D352B9-A615-4F90-8055-AAD94D520C16}"/>
+    <hyperlink ref="G65" r:id="rId41" xr:uid="{E68DEB40-6768-4106-A762-A30AE5594359}"/>
+    <hyperlink ref="G75" r:id="rId42" xr:uid="{D868423B-F860-45DC-A816-3B791D958AA4}"/>
+    <hyperlink ref="G72" r:id="rId43" xr:uid="{5B0A320D-82B9-4045-9078-4D51E0BF5387}"/>
+    <hyperlink ref="G49" r:id="rId44" xr:uid="{CEA402B1-A6D1-431E-B572-EE2D5A56008B}"/>
+    <hyperlink ref="G7" r:id="rId45" xr:uid="{B419CFA2-8AB9-4E4A-BD3F-829C637605C1}"/>
+    <hyperlink ref="G51" r:id="rId46" xr:uid="{C628FFC1-9B89-4B43-B325-B4E7653BE930}"/>
+    <hyperlink ref="G52" r:id="rId47" xr:uid="{07556464-5031-464B-AB15-4022B29F3F4E}"/>
+    <hyperlink ref="G53" r:id="rId48" xr:uid="{954688E4-2385-4233-B250-59DC7A9F0AE8}"/>
+    <hyperlink ref="G44" r:id="rId49" xr:uid="{3F7AD132-C1A0-4F40-ACFF-51FF51E8E10A}"/>
+    <hyperlink ref="G41" r:id="rId50" xr:uid="{F47F1B1F-ACB1-4C25-866E-E3651E3346B0}"/>
+    <hyperlink ref="G36" r:id="rId51" xr:uid="{58629060-FB90-4785-BD37-0C1B8C1A10D7}"/>
+    <hyperlink ref="G40" r:id="rId52" xr:uid="{0191B1FF-ECE8-42E5-8BD6-DCB0B5D296FE}"/>
+    <hyperlink ref="G33" r:id="rId53" xr:uid="{70278EA8-A8CA-4A4E-9BD9-3BE4D72ED5C2}"/>
+    <hyperlink ref="G56" r:id="rId54" xr:uid="{1E125A77-C5DA-4D5E-A041-79CF23239DF9}"/>
+    <hyperlink ref="G68" r:id="rId55" xr:uid="{1FA91362-069F-4DB5-9031-5E768ACD2C26}"/>
+    <hyperlink ref="G69" r:id="rId56" xr:uid="{C9464BA9-9BF3-4D9B-A269-918599AF4D49}"/>
+    <hyperlink ref="G61" r:id="rId57" xr:uid="{AC80C76F-D469-476D-847B-BEF952500780}"/>
+    <hyperlink ref="G73" r:id="rId58" xr:uid="{5C944EC2-1AF0-4697-B7D2-C2A66A144325}"/>
+    <hyperlink ref="G74" r:id="rId59" xr:uid="{3CD9A9AC-B6A4-4EC5-91F6-2D26F5FA9699}"/>
+    <hyperlink ref="G67" r:id="rId60" xr:uid="{A9FCDC72-A379-41BF-8854-D572C25C2E38}"/>
+    <hyperlink ref="G62" r:id="rId61" xr:uid="{03302820-5B74-4827-BA58-1CAD902E69B2}"/>
+    <hyperlink ref="G71" r:id="rId62" xr:uid="{641A8563-2725-465C-BE7C-58A04559B1DC}"/>
+    <hyperlink ref="G63" r:id="rId63" xr:uid="{FB8CF760-5F31-49EE-A491-5C6A91F89BDC}"/>
+    <hyperlink ref="G3" r:id="rId64" xr:uid="{FDCB4F92-8207-487E-8D34-057994CE01DE}"/>
+    <hyperlink ref="H2" r:id="rId65" xr:uid="{7E133567-28B3-4A15-868C-4BACC228670C}"/>
+    <hyperlink ref="G8" r:id="rId66" xr:uid="{261D6B97-768E-41DF-AAD6-CD4E3C047485}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3981,8 +5850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF6B983-4860-4BF3-8F0E-401484152412}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4005,10 +5874,10 @@
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>5</v>
@@ -4017,7 +5886,7 @@
         <v>16</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>11</v>
@@ -4038,13 +5907,13 @@
         <v>4</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="220" customHeight="1" x14ac:dyDescent="0.35">
@@ -4055,28 +5924,28 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -4175,21 +6044,23 @@
       <c r="M5" s="10"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="17" t="s">
+        <v>396</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -4203,21 +6074,23 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="17" t="s">
+        <v>396</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="9" t="s">
@@ -4233,16 +6106,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>43</v>
@@ -4267,16 +6140,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>43</v>
@@ -4312,33 +6185,33 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="39"/>
+      <c r="A11" s="66" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="68"/>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>19</v>
@@ -4357,14 +6230,14 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>19</v>
@@ -4383,14 +6256,14 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>19</v>
@@ -4409,14 +6282,14 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>19</v>
@@ -4435,14 +6308,14 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>19</v>
@@ -4461,14 +6334,14 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>19</v>
@@ -4487,14 +6360,14 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="3" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>19</v>
@@ -4513,14 +6386,14 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="3" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>19</v>
@@ -4539,14 +6412,14 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>19</v>
@@ -4565,14 +6438,14 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="3" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>19</v>
@@ -4591,14 +6464,14 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>19</v>
@@ -4617,14 +6490,14 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>19</v>
@@ -4643,14 +6516,14 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>19</v>
@@ -4703,19 +6576,19 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.36328125" customWidth="1"/>
     <col min="3" max="3" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>16</v>
@@ -4723,15 +6596,19 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
